--- a/Documentação/Gestão/Ata - Sprint 3 - Strawtech.xlsx
+++ b/Documentação/Gestão/Ata - Sprint 3 - Strawtech.xlsx
@@ -1,43 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="Aluno"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{258B5B9C-757E-4CD0-A2C7-4FF34884787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23250" windowHeight="13170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23250" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1698314667" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1698314667" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1698314667" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1698314667"/>
+      <pm:revision xmlns:pm="smNativeData" day="1700237551" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1700237551" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1700237551" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1700237551"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>ATA - PROJETO STRAWTECH</t>
   </si>
@@ -92,19 +78,14 @@
 • Foi definido que o Gustavo Fernandes ficará responsável pela integração da ferramneta help Desk e a criação de um novo repositório para a Sprint 3</t>
   </si>
   <si>
-    <t xml:space="preserve">•  
-•  
-•  
-•  
-• 
-•  </t>
+    <t xml:space="preserve">•  Foi debatido a prioziação dos intregaveis. 
+  </t>
   </si>
   <si>
-    <t>•
-•
-•
-•
-•</t>
+    <t xml:space="preserve">
+• Foi definido que o Pablo ficara reponsavel pela implementação da web-data-viz.
+• Foi definido que o José ira atualizar o banco 
+</t>
   </si>
   <si>
     <t xml:space="preserve">Gustavo Bueno
@@ -113,6 +94,31 @@
 Robson Nakama
 José Vitor
  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  Foi definido que o Gustavo Bueno será responsavel pela GMUD
+•  foi defininido quem ira fazet cada fluxograma
+</t>
+  </si>
+  <si>
+    <t>• Foi defimido que o grupo não ira utilizar a API de criptografia.
+•  Foi atualizado o trello em grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• Foi apresentada a modelagem para o grupo 
+• Foi aprensentada a feerramneta Help Desk
+•  Gustavo Fernandes ficou responsável pelo Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>•
+•
+•
+•
+•</t>
   </si>
   <si>
     <t>•Foi definido que Gustavo Fernandes ficará responsável pela conexão das validações nas inputs;
@@ -159,54 +165,142 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="14">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;R$&quot;;\-#,##0\ &quot;R$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;R$&quot;;[Red]\-#,##0\ &quot;R$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;R$&quot;;\-#,##0.00\ &quot;R$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;R$&quot;;[Red]\-#,##0.00\ &quot;R$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;R$&quot;_-;\-* #,##0\ &quot;R$&quot;_-;_-* &quot;-&quot;\ &quot;R$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _R_$_-;\-* #,##0\ _R_$_-;_-* &quot;-&quot;\ _R_$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;R$&quot;_-;\-* #,##0.00\ &quot;R$&quot;_-;_-* &quot;-&quot;??\ &quot;R$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _R_$_-;\-* #,##0.00\ _R_$_-;_-* &quot;-&quot;??\ _R_$_-;_-@_-"/>
+    <numFmt numFmtId="16" formatCode="D-MMM"/>
+    <numFmt numFmtId="20" formatCode="h:mm"/>
+    <numFmt numFmtId="2" formatCode="0.00"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+    <numFmt numFmtId="164" formatCode="DD/ MMM "/>
+    <numFmt numFmtId="165" formatCode="DD/MM"/>
+  </numFmts>
   <fonts count="8">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Verdana" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Merriweather"/>
+      <color rgb="FF000000"/>
       <sz val="49"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Merriweather" sz="980" lang="default"/>
+            <pm:cs face="Times New Roman" sz="980" lang="default"/>
+            <pm:ea face="SimSun" sz="980" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Merriweather"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Merriweather" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Merriweather"/>
+      <color rgb="FF000000"/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Merriweather" sz="180" lang="default"/>
+            <pm:cs face="Times New Roman" sz="180" lang="default"/>
+            <pm:ea face="SimSun" sz="180" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
+      <name val="Merriweather"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Merriweather" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Verdana" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+            <pm:latin face="Verdana" sz="180" lang="default"/>
+            <pm:cs face="Times New Roman" sz="180" lang="default"/>
+            <pm:ea face="SimSun" sz="180" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,43 +308,175 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6D01"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6DD"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF46524"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF46524"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE6DD"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -265,10 +491,21 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -278,10 +515,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -291,7 +538,38 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -300,22 +578,176 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -324,37 +756,127 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,139 +890,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1698314667" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1700237551" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1698314667" count="3">
-        <pm:color name="Cor 24" rgb="F46524"/>
-        <pm:color name="Cor 25" rgb="FF6D01"/>
+      <pm:colors xmlns:pm="smNativeData" id="1700237551" count="3">
+        <pm:color name="Cor 24" rgb="FF6D01"/>
+        <pm:color name="Cor 25" rgb="F46524"/>
         <pm:color name="Cor 26" rgb="FFE6DD"/>
       </pm:colors>
     </ext>
@@ -763,27 +1290,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A10" zoomScale="71" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="11" defaultColWidth="12.567568" defaultRowHeight="13.45"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="75" customWidth="1"/>
+    <col min="2" max="2" width="14.423423" customWidth="1"/>
+    <col min="3" max="3" width="20.711712" customWidth="1"/>
+    <col min="4" max="4" width="15.423423" customWidth="1"/>
+    <col min="5" max="5" width="26.855856" customWidth="1"/>
+    <col min="6" max="6" width="28.423423" customWidth="1"/>
+    <col min="7" max="7" width="75.000000" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="10.5" customHeight="1">
+    <row r="1" spans="1:25" ht="10.50" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -880,14 +1407,14 @@
     </row>
     <row r="4" spans="1:25" ht="111.75" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="10">
+      <c r="B4" s="10" t="n">
         <v>45236</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.41666666666666669</v>
+      <c r="C4" s="11" t="n">
+        <v>0.416666666666666607</v>
       </c>
-      <c r="D4" s="11">
-        <v>0.4291666666666667</v>
+      <c r="D4" s="11" t="n">
+        <v>0.429166666666666696</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>7</v>
@@ -917,14 +1444,14 @@
     </row>
     <row r="5" spans="1:25" ht="75" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="14">
+      <c r="B5" s="14" t="n">
         <v>45237</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.41666666666666669</v>
+      <c r="C5" s="15" t="n">
+        <v>0.416666666666666607</v>
       </c>
-      <c r="D5" s="15">
-        <v>0.42638888888888887</v>
+      <c r="D5" s="15" t="n">
+        <v>0.42638888888888884</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>9</v>
@@ -954,14 +1481,14 @@
     </row>
     <row r="6" spans="1:25" ht="135.75" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="10">
+      <c r="B6" s="10" t="n">
         <v>45238</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.40972222222222227</v>
+      <c r="C6" s="11" t="n">
+        <v>0.409722222222222321</v>
       </c>
-      <c r="D6" s="11">
-        <v>0.42499999999999999</v>
+      <c r="D6" s="11" t="n">
+        <v>0.425</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>7</v>
@@ -991,14 +1518,14 @@
     </row>
     <row r="7" spans="1:25" ht="132" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="14">
+      <c r="B7" s="14" t="n">
         <v>45239</v>
       </c>
-      <c r="C7" s="15">
-        <v>0.41666666666666669</v>
+      <c r="C7" s="15" t="n">
+        <v>0.791666666666666607</v>
       </c>
-      <c r="D7" s="15">
-        <v>0.4284722222222222</v>
+      <c r="D7" s="15" t="n">
+        <v>0.800694444444444464</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>9</v>
@@ -1026,16 +1553,16 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="169.5" customHeight="1">
+    <row r="8" spans="1:25" ht="169.50" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="10">
+      <c r="B8" s="10" t="n">
         <v>45240</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.41666666666666669</v>
+      <c r="C8" s="11" t="n">
+        <v>0.691666666666666607</v>
       </c>
-      <c r="D8" s="11">
-        <v>0.42777777777777781</v>
+      <c r="D8" s="11" t="n">
+        <v>0.708333333333333393</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>7</v>
@@ -1065,21 +1592,21 @@
     </row>
     <row r="9" spans="1:25" ht="123.75" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="14">
+      <c r="B9" s="14" t="n">
         <v>45243</v>
       </c>
-      <c r="C9" s="15">
-        <v>0.41666666666666669</v>
+      <c r="C9" s="15" t="n">
+        <v>0.690972222222222232</v>
       </c>
-      <c r="D9" s="15">
-        <v>0.42986111111111108</v>
+      <c r="D9" s="15" t="n">
+        <v>0.708333333333333393</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1100,17 +1627,23 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="115.5" customHeight="1">
+    <row r="10" spans="1:25" ht="115.50" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="44" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>0.690972222222222232</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>0.743055555555555536</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1131,17 +1664,23 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="148.5" customHeight="1">
+    <row r="11" spans="1:25" ht="148.50" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="45" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C11" s="20" t="n">
+        <v>0.416666666666666696</v>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>0.430555555555555536</v>
+      </c>
       <c r="E11" s="16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1164,16 +1703,12 @@
     </row>
     <row r="12" spans="1:25" ht="108" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1195,15 +1730,13 @@
     </row>
     <row r="13" spans="1:25" ht="108.75" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1234,7 +1767,7 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1255,7 +1788,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="163.5" customHeight="1">
+    <row r="15" spans="1:25" ht="163.50" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -1265,7 +1798,7 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1286,7 +1819,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="82.5" customHeight="1">
+    <row r="16" spans="1:25" ht="82.50" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
@@ -1296,7 +1829,7 @@
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1327,7 +1860,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1348,7 +1881,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" ht="142.5" customHeight="1">
+    <row r="18" spans="1:25" ht="142.50" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="22"/>
       <c r="C18" s="11"/>
@@ -1358,7 +1891,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1389,7 +1922,7 @@
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1420,7 +1953,7 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1441,7 +1974,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" ht="133.5" customHeight="1">
+    <row r="21" spans="1:25" ht="133.50" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="26"/>
       <c r="C21" s="30"/>
@@ -1451,7 +1984,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1482,7 +2015,7 @@
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1513,7 +2046,7 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1544,7 +2077,7 @@
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="34"/>
@@ -1575,7 +2108,7 @@
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1606,7 +2139,7 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
@@ -1627,7 +2160,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" ht="88.5" customHeight="1">
+    <row r="27" spans="1:25" ht="88.50" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="26"/>
       <c r="C27" s="35"/>
@@ -27875,11 +28408,28 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <pageMargins left="0.51180599999999998" right="0.51180599999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.315278" footer="0.315278"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1700237551" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.511806" right="0.511806" top="0.787500" bottom="0.787500" header="0.315278" footer="0.315278"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1700237551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1700237551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700237551" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700237551" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1698314667" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700237551" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Documentação/Gestão/Ata - Sprint 3 - Strawtech.xlsx
+++ b/Documentação/Gestão/Ata - Sprint 3 - Strawtech.xlsx
@@ -13,17 +13,39 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1700237551" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1700237551" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1700237551" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1700237551"/>
+      <pm:revision xmlns:pm="smNativeData" day="1700239791" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1700239791" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1700239791" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1700239791"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>ATA - PROJETO STRAWTECH</t>
   </si>
@@ -53,6 +75,9 @@
 José Vitor</t>
   </si>
   <si>
+    <t>Ninguém</t>
+  </si>
+  <si>
     <t xml:space="preserve">• Foi discutido sobre o reajuste do projeto
 • Foi definido que o iremos manter o protótipo das páginas anteriores (sprint 2) e só acrescentar mais funcionalidades para agregar valor.
 • Foi descutido a planilha do plano de ação
@@ -68,9 +93,10 @@
 </t>
   </si>
   <si>
-    <t>• Foi definido que o Gustavo Fernandes será o Product Owner desta semana.
-• Foi definido que o José Vitor será o Scrum Master desta semana.
-• Foi conversado como melhorar a apresentação da desboard.</t>
+    <t xml:space="preserve">
+• Foi conversado como melhorar a apresentação da desboard.
+•  Foi definidio que o José Vitor será o P.O. dessa semana
+•  Foi definidio que o Gustavo F. Será o scrum master dessa semana</t>
   </si>
   <si>
     <t>•  Foi definido que o José irá ajustar o trello e a modelagem do banco de dados.
@@ -98,6 +124,8 @@
   <si>
     <t xml:space="preserve">•  Foi definido que o Gustavo Bueno será responsavel pela GMUD
 •  foi defininido quem ira fazet cada fluxograma
+• Foi definido que o Robson será o Product Owner desta semana.
+• Foi definido que o Gustavo Bueno será o Scrum Master desta semana.
 </t>
   </si>
   <si>
@@ -109,57 +137,6 @@
 • Foi apresentada a modelagem para o grupo 
 • Foi aprensentada a feerramneta Help Desk
 •  Gustavo Fernandes ficou responsável pelo Analytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>•
-•
-•
-•
-•</t>
-  </si>
-  <si>
-    <t>•Foi definido que Gustavo Fernandes ficará responsável pela conexão das validações nas inputs;
- •Foi definido que Mateus Braga ficará responsável pela estilização da página home;
- •Foi definido que Gustavo Bueno ficará responsável pela entrega e organização dos códigos de validação no projeto;
- •Foi definido que o grupo ficará responsável pela criação do canvas de apresentação;
- •Foi definido que José Vitor ficará responsável pela organização do Trello;
- •Foi definido que José Vitor ficará responsável pela organização da Product Backlog;
- •Foi definido que Robson Nakama ficará responsável pela criação do gráfico de BurnDown;
- •Foi definido que Mateus Braga ficará responsável pela estilização da página login;
- •Foi definido que Pablo Vinicius ficará responsável pelas modificações no banco de dados;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • Foi atualizado com os membros do grupo todo o progresso da semana baseado nas decisões tomadas na daily do dia 10/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • Foi definido que o Gustavo Fernandes será o Scrum Master da próxima  semana
- • Foi definido que o José Vitor será o P.O. da próxima semana
- • Foi atualizado com os membros do grupo todo o progresso da semana baseado nas decisões tomadas na daily do dia 10/10</t>
-  </si>
-  <si>
-    <t>• Foi definido que o Product Owner dessa semana será o Gustavo Bueno.
-• Foi definido que o Scrum Master dessa semana será o Pablo Vinicius.
- • Foi atualizado com os membros do grupo todo o progresso da semana baseado nas decisões tomadas na daily do dia 10/10</t>
-  </si>
-  <si>
-    <t>•Foi definido que Gustavo Bueno ficará responsável pela entrega da tabela de riscos
-•Foi definido que Mateus Braga ficará responsável pelo diagrama de solução
-•Foi definido que Gustavo Fernandes atualizará as tabelas do banco de dados e juntamente com o Gustavo Bueno implementarão os códigos de validação
-•Foi definido que Robson e José terminarão o css da página home e produto</t>
-  </si>
-  <si>
-    <t>• Foram realizados ajustes nas telas do site institucional
-• Foi passado que o José irá realizar os ajustes finais no Trello e Plano de ação
-• Foram realizados ajustes na tela da dashboard
-• Foi passado que o Robson e o José irão finalizar a product backlog e o Robson irá fazer o gráfico final de burndown
-• Foram realizadas atualizações na API pelo Gustavo Fernandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Foi repassado entre os membros do grupo o que cada um do grupo está sendo feito 
-</t>
   </si>
 </sst>
 </file>
@@ -190,7 +167,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -205,7 +182,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -219,7 +196,7 @@
       <sz val="49"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="980" lang="default"/>
             <pm:cs face="Times New Roman" sz="980" lang="default"/>
             <pm:ea face="SimSun" sz="980" lang="default"/>
@@ -233,7 +210,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -247,7 +224,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -261,7 +238,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -276,7 +253,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -291,7 +268,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700237551" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -331,7 +308,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -342,7 +319,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -353,7 +330,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -364,7 +341,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -375,7 +352,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -386,7 +363,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -397,7 +374,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -408,7 +385,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -419,7 +396,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -430,7 +407,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -441,7 +418,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -452,7 +429,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700237551" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -474,7 +451,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
         </ext>
       </extLst>
     </border>
@@ -493,7 +470,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -517,7 +494,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -540,7 +517,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -563,7 +540,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -586,7 +563,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -609,7 +586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -631,7 +608,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -653,7 +630,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -675,7 +652,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -697,7 +674,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -719,7 +696,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -742,7 +719,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -764,7 +741,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -787,7 +764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -808,7 +785,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551">
+          <pm:border xmlns:pm="smNativeData" id="1700239791">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -830,7 +807,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
         </ext>
       </extLst>
     </border>
@@ -849,7 +826,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
         </ext>
       </extLst>
     </border>
@@ -868,7 +845,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700237551"/>
+          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
         </ext>
       </extLst>
     </border>
@@ -1022,10 +999,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1700237551" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1700239791" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1700237551" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1700239791" count="3">
         <pm:color name="Cor 24" rgb="FF6D01"/>
         <pm:color name="Cor 25" rgb="F46524"/>
         <pm:color name="Cor 26" rgb="FFE6DD"/>
@@ -1297,7 +1274,7 @@
   <dimension ref="A1:Y998"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A10" zoomScale="71" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.567568" defaultRowHeight="13.45"/>
@@ -1419,9 +1396,11 @@
       <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1454,11 +1433,13 @@
         <v>0.42638888888888884</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1493,9 +1474,11 @@
       <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1528,11 +1511,13 @@
         <v>0.800694444444444464</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1567,9 +1552,11 @@
       <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1602,11 +1589,13 @@
         <v>0.708333333333333393</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1641,9 +1630,11 @@
       <c r="E10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G10" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1678,9 +1669,11 @@
       <c r="E11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G11" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1735,9 +1728,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1762,13 +1753,9 @@
       <c r="B14" s="18"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1793,13 +1780,9 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="G15" s="17"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1824,13 +1807,9 @@
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="G16" s="25"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1855,13 +1834,9 @@
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1886,13 +1861,9 @@
       <c r="B18" s="22"/>
       <c r="C18" s="11"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="G18" s="25"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1917,13 +1888,9 @@
       <c r="B19" s="26"/>
       <c r="C19" s="30"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="G19" s="28"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1948,13 +1915,9 @@
       <c r="B20" s="22"/>
       <c r="C20" s="31"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="G20" s="25"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1979,13 +1942,9 @@
       <c r="B21" s="26"/>
       <c r="C21" s="30"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="G21" s="28"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2010,13 +1969,9 @@
       <c r="B22" s="22"/>
       <c r="C22" s="11"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="G22" s="25"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2041,13 +1996,9 @@
       <c r="B23" s="26"/>
       <c r="C23" s="20"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="28" t="s">
-        <v>23</v>
-      </c>
+      <c r="G23" s="28"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2072,13 +2023,9 @@
       <c r="B24" s="22"/>
       <c r="C24" s="11"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E24" s="12"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="25" t="s">
-        <v>24</v>
-      </c>
+      <c r="G24" s="25"/>
       <c r="H24" s="8"/>
       <c r="I24" s="34"/>
       <c r="J24" s="8"/>
@@ -2103,13 +2050,9 @@
       <c r="B25" s="26"/>
       <c r="C25" s="20"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="E25" s="16"/>
       <c r="F25" s="35"/>
-      <c r="G25" s="28" t="s">
-        <v>25</v>
-      </c>
+      <c r="G25" s="28"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2134,13 +2077,9 @@
       <c r="B26" s="22"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="25" t="s">
-        <v>26</v>
-      </c>
+      <c r="G26" s="25"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
@@ -28411,7 +28350,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1700237551" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1700239791" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -28420,16 +28359,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1700237551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1700237551" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1700237551" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1700237551" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1700239791" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1700239791" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700239791" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700239791" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700237551" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700239791" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Documentação/Gestão/Ata - Sprint 3 - Strawtech.xlsx
+++ b/Documentação/Gestão/Ata - Sprint 3 - Strawtech.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1700239791" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1700239791" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1700239791" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1700239791"/>
+      <pm:revision xmlns:pm="smNativeData" day="1700834835" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1700834835" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1700834835" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1700834835"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,12 +40,18 @@
     <comment ref="F11" authorId="0">
       <text/>
     </comment>
+    <comment ref="F13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text/>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>ATA - PROJETO STRAWTECH</t>
   </si>
@@ -68,6 +74,9 @@
     <t>Assuntos discutidos e principais decisões :</t>
   </si>
   <si>
+    <t>06/11</t>
+  </si>
+  <si>
     <t>Gustavo Bueno
 Gustavo Fernandes
 Pablo Vinícius
@@ -85,6 +94,9 @@
 </t>
   </si>
   <si>
+    <t>07/11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gustavo Bueno
 Gustavo Fernandes
 Pablo Vinícius
@@ -99,19 +111,31 @@
 •  Foi definidio que o Gustavo F. Será o scrum master dessa semana</t>
   </si>
   <si>
+    <t>08/11</t>
+  </si>
+  <si>
     <t>•  Foi definido que o José irá ajustar o trello e a modelagem do banco de dados.
 •  Foi atualizado o Plano de ação.
 • Foi definido que o Gustavo Fernandes ficará responsável pela integração da ferramneta help Desk e a criação de um novo repositório para a Sprint 3</t>
+  </si>
+  <si>
+    <t>09/11</t>
   </si>
   <si>
     <t xml:space="preserve">•  Foi debatido a prioziação dos intregaveis. 
   </t>
   </si>
   <si>
+    <t>10/11</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 • Foi definido que o Pablo ficara reponsavel pela implementação da web-data-viz.
 • Foi definido que o José ira atualizar o banco 
 </t>
+  </si>
+  <si>
+    <t>13/11</t>
   </si>
   <si>
     <t xml:space="preserve">Gustavo Bueno
@@ -129,8 +153,14 @@
 </t>
   </si>
   <si>
+    <t>14/11</t>
+  </si>
+  <si>
     <t>• Foi defimido que o grupo não ira utilizar a API de criptografia.
 •  Foi atualizado o trello em grupo</t>
+  </si>
+  <si>
+    <t>16/11</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -138,12 +168,29 @@
 • Foi aprensentada a feerramneta Help Desk
 •  Gustavo Fernandes ficou responsável pelo Analytics</t>
   </si>
+  <si>
+    <t>• Foi definido que o Gutavo F. será o Product Owner desta semana.
+• Foi definido que o José  será o Scrum Master desta semana.
+• Foi realizada uma análise com os membros do grupo sobre todo  o desempenho do projeto até o presente momento e foi alinhado tudo o que será necessário ser feito para a entrega do projeto.</t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <t>• Foi alinhado com o grupo o desempenho de cada um dos membros ao longo da semana.</t>
+  </si>
+  <si>
+    <t>22/11</t>
+  </si>
+  <si>
+    <t>23/11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;R$&quot;;\-#,##0\ &quot;R$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;R$&quot;;[Red]\-#,##0\ &quot;R$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;R$&quot;;\-#,##0.00\ &quot;R$&quot;"/>
@@ -158,6 +205,7 @@
     <numFmt numFmtId="49" formatCode="@"/>
     <numFmt numFmtId="164" formatCode="DD/ MMM "/>
     <numFmt numFmtId="165" formatCode="DD/MM"/>
+    <numFmt numFmtId="4" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -167,7 +215,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -182,7 +230,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -196,7 +244,7 @@
       <sz val="49"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="980" lang="default"/>
             <pm:cs face="Times New Roman" sz="980" lang="default"/>
             <pm:ea face="SimSun" sz="980" lang="default"/>
@@ -210,7 +258,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -224,7 +272,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -238,7 +286,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Merriweather" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -253,7 +301,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -268,7 +316,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1700239791" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700834835" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -308,7 +356,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -319,7 +367,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -330,7 +378,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -341,7 +389,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -352,7 +400,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -363,7 +411,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -374,7 +422,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -385,7 +433,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -396,7 +444,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00F46524" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -407,7 +455,18 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6DD"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -418,18 +477,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE6DD"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1700239791" type="1" fgLvl="100" fgClr="00FFE6DD" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700834835" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -451,7 +499,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
+          <pm:border xmlns:pm="smNativeData" id="1700834835"/>
         </ext>
       </extLst>
     </border>
@@ -470,7 +518,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -494,7 +542,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -517,7 +565,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -540,7 +588,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -563,7 +611,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -586,7 +634,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -608,7 +656,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -630,7 +678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -652,7 +700,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -674,7 +722,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -696,7 +744,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -719,7 +767,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -741,7 +789,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -764,7 +812,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -785,7 +833,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791">
+          <pm:border xmlns:pm="smNativeData" id="1700834835">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -807,7 +855,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
+          <pm:border xmlns:pm="smNativeData" id="1700834835"/>
         </ext>
       </extLst>
     </border>
@@ -826,7 +874,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
+          <pm:border xmlns:pm="smNativeData" id="1700834835"/>
         </ext>
       </extLst>
     </border>
@@ -845,7 +893,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1700239791"/>
+          <pm:border xmlns:pm="smNativeData" id="1700834835"/>
         </ext>
       </extLst>
     </border>
@@ -853,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,9 +930,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,9 +937,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,25 +948,13 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,16 +1010,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -999,10 +1038,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1700239791" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1700834835" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1700239791" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1700834835" count="3">
         <pm:color name="Cor 24" rgb="FF6D01"/>
         <pm:color name="Cor 25" rgb="F46524"/>
         <pm:color name="Cor 26" rgb="FFE6DD"/>
@@ -1273,13 +1312,13 @@
   </sheetPr>
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A10" zoomScale="71" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A13" zoomScale="71" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.567568" defaultRowHeight="13.45"/>
   <cols>
-    <col min="2" max="2" width="14.423423" customWidth="1"/>
+    <col min="2" max="2" width="18.630631" customWidth="1"/>
     <col min="3" max="3" width="20.711712" customWidth="1"/>
     <col min="4" max="4" width="15.423423" customWidth="1"/>
     <col min="5" max="5" width="26.855856" customWidth="1"/>
@@ -1316,14 +1355,14 @@
     </row>
     <row r="2" spans="1:25" ht="66.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1384,23 +1423,23 @@
     </row>
     <row r="4" spans="1:25" ht="111.75" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="10" t="n">
-        <v>45236</v>
+      <c r="B4" s="40" t="s">
+        <v>7</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.416666666666666607</v>
       </c>
-      <c r="D4" s="11" t="n">
-        <v>0.429166666666666696</v>
+      <c r="D4" s="10" t="n">
+        <v>0.429166666666666607</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1423,23 +1462,23 @@
     </row>
     <row r="5" spans="1:25" ht="75" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="14" t="n">
-        <v>45237</v>
+      <c r="B5" s="41" t="s">
+        <v>11</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="13" t="n">
         <v>0.416666666666666607</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="13" t="n">
         <v>0.42638888888888884</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>10</v>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>8</v>
+      <c r="F5" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>11</v>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1462,23 +1501,23 @@
     </row>
     <row r="6" spans="1:25" ht="135.75" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="10" t="n">
-        <v>45238</v>
+      <c r="B6" s="40" t="s">
+        <v>14</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.409722222222222321</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="10" t="n">
         <v>0.425</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>12</v>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1501,23 +1540,23 @@
     </row>
     <row r="7" spans="1:25" ht="132" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="14" t="n">
-        <v>45239</v>
+      <c r="B7" s="41" t="s">
+        <v>16</v>
       </c>
-      <c r="C7" s="15" t="n">
-        <v>0.791666666666666607</v>
+      <c r="C7" s="13" t="n">
+        <v>0.791666666666666519</v>
       </c>
-      <c r="D7" s="15" t="n">
-        <v>0.800694444444444464</v>
+      <c r="D7" s="13" t="n">
+        <v>0.800694444444444287</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>10</v>
+      <c r="E7" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>8</v>
+      <c r="F7" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>13</v>
+      <c r="G7" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1540,23 +1579,23 @@
     </row>
     <row r="8" spans="1:25" ht="169.50" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="10" t="n">
-        <v>45240</v>
+      <c r="B8" s="40" t="s">
+        <v>18</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>0.691666666666666607</v>
+      <c r="C8" s="10" t="n">
+        <v>0.691666666666666519</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="10" t="n">
         <v>0.708333333333333393</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
+      <c r="F8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1579,23 +1618,23 @@
     </row>
     <row r="9" spans="1:25" ht="123.75" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="n">
-        <v>45243</v>
+      <c r="B9" s="41" t="s">
+        <v>20</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="13" t="n">
         <v>0.690972222222222232</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="13" t="n">
         <v>0.708333333333333393</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>8</v>
+      <c r="F9" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>16</v>
+      <c r="G9" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1618,23 +1657,23 @@
     </row>
     <row r="10" spans="1:25" ht="115.50" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="44" t="n">
-        <v>45244</v>
+      <c r="B10" s="40" t="s">
+        <v>23</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>0.690972222222222232</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <v>0.743055555555555536</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>17</v>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1657,23 +1696,23 @@
     </row>
     <row r="11" spans="1:25" ht="148.50" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="45" t="n">
-        <v>45246</v>
+      <c r="B11" s="42" t="s">
+        <v>25</v>
       </c>
-      <c r="C11" s="20" t="n">
-        <v>0.416666666666666696</v>
+      <c r="C11" s="16" t="n">
+        <v>0.416666666666666607</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="16" t="n">
         <v>0.430555555555555536</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>18</v>
+      <c r="F11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1696,12 +1735,22 @@
     </row>
     <row r="12" spans="1:25" ht="108" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="38" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0.416666666666666607</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0.429166666666666607</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1723,12 +1772,24 @@
     </row>
     <row r="13" spans="1:25" ht="108.75" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="39" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1750,12 +1811,24 @@
     </row>
     <row r="14" spans="1:25" ht="114" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0.409722222222222321</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0.430555555555555536</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1777,12 +1850,24 @@
     </row>
     <row r="15" spans="1:25" ht="163.50" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0.416666666666666607</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>0.430555555555555536</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1804,12 +1889,24 @@
     </row>
     <row r="16" spans="1:25" ht="82.50" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>0.416666666666666696</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0.430555555555555536</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1831,12 +1928,12 @@
     </row>
     <row r="17" spans="1:25" ht="158.25" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1858,12 +1955,12 @@
     </row>
     <row r="18" spans="1:25" ht="142.50" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1885,12 +1982,12 @@
     </row>
     <row r="19" spans="1:25" ht="152.25" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1912,12 +2009,12 @@
     </row>
     <row r="20" spans="1:25" ht="135.75" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1939,12 +2036,12 @@
     </row>
     <row r="21" spans="1:25" ht="133.50" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1966,12 +2063,12 @@
     </row>
     <row r="22" spans="1:25" ht="122.25" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1993,12 +2090,12 @@
     </row>
     <row r="23" spans="1:25" ht="114.75" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2020,14 +2117,14 @@
     </row>
     <row r="24" spans="1:25" ht="96" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="34"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -2047,12 +2144,12 @@
     </row>
     <row r="25" spans="1:25" ht="108" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2073,16 +2170,16 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="72.75" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -2100,16 +2197,16 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="88.50" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -2127,16 +2224,16 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -2154,16 +2251,16 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -2187,7 +2284,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -2214,7 +2311,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="40"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2241,7 +2338,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="40"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2268,7 +2365,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2295,7 +2392,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="40"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2322,7 +2419,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="40"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -2349,7 +2446,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="40"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2376,7 +2473,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="40"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -2403,7 +2500,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="40"/>
+      <c r="G38" s="34"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2430,7 +2527,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="40"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -2457,7 +2554,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="40"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -2484,7 +2581,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="40"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -2511,7 +2608,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="40"/>
+      <c r="G42" s="34"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -2538,7 +2635,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="40"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2565,7 +2662,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="40"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2592,7 +2689,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="40"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2619,7 +2716,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="40"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2646,7 +2743,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="40"/>
+      <c r="G47" s="34"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -28350,7 +28447,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1700239791" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1700834835" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -28359,17 +28456,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1700239791" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1700239791" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1700239791" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1700239791" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1700834835" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1700834835" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700834835" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700834835" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700239791" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700834835" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
